--- a/Testcase Delivery.xlsx
+++ b/Testcase Delivery.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="301">
   <si>
     <t xml:space="preserve">No</t>
   </si>
@@ -1664,6 +1664,47 @@
  - Không có gắn code fallback</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">pid: aff35e3ae4414d4a8b9f2e11e3283f83
+aid: 
+wid: ad85c58281be4b9682a42a5c9b7dd219
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">category: { category_name: 'News',
+  iab: 'IAB12',
+  trackid: '2016070110000000012' }
+categoryWebsite: [ '2016090700000000011',
+  '2016070110000000012',
+  '2016070110000000006' ]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">analyticUrl: http://analytics.yomedia.vn
+mediaUrl: http://media_obj.9730a73b.cdnviet.com
+trackingUrl: http://tracking.yomedia.vn
+analyticUrl: http://analytics.yomedia.vn
+</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">TC055</t>
   </si>
   <si>
@@ -1672,6 +1713,47 @@
  - Không có gắn code fallback</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">pid: 0681c381c8364325a1a242bd9340eebf
+aid: 
+wid: ad85c58281be4b9682a42a5c9b7dd219
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">category: { category_name: 'News',
+  iab: 'IAB12',
+  trackid: '2016070110000000012' }
+categoryWebsite: [ '2016090700000000011',
+  '2016070110000000012',
+  '2016070110000000006' ]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">analyticUrl: http://analytics.yomedia.vn
+mediaUrl: http://media_obj.9730a73b.cdnviet.com
+trackingUrl: http://tracking.yomedia.vn
+analyticUrl: http://analytics.yomedia.vn
+vast_version: 2</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">TC056</t>
   </si>
   <si>
@@ -1680,6 +1762,26 @@
  - Có gắn code fallback</t>
   </si>
   <si>
+    <t xml:space="preserve">Return backup, random:
+pid: aff35e3ae4414d4a8b9f2e11e3283f83
+aid: 
+zid: 1a7cf454312443ccad4bc03c5828a5ac
+wid: ad85c58281be4b9682a42a5c9b7dd219
+mediaUrl: http://media_obj.9730a73b.cdnviet.com
+trackingUrl: http://tracking.yomedia.vn
+analyticUrl: http://analytics.yomedia.vn
+fallback: &lt;script language="javascript"&gt;             alert("Hello World!"); &lt;/script&gt;
+Hoặc:
+pid: aff35e3ae4414d4a8b9f2e11e3283f83
+aid: 
+zid: 1a7cf454312443ccad4bc03c5828a5ac
+wid: ad85c58281be4b9682a42a5c9b7dd219
+mediaUrl: http://media_obj.9730a73b.cdnviet.com
+trackingUrl: http://tracking.yomedia.vn
+analyticUrl: http://analytics.yomedia.vn
+fallback: &lt;script type="text/javascript"&gt;         /*&lt;![CDATA[*/         blueseed_key = "f9af373d5b7ce4e838d44118a5490da9";         blueseed_time = new Date().getTime();         blueseed_channel = "";         blueseed_code_format = "ads-sync.js";         blueseed_click = "";         blueseed_custom_params = {};         /*]]&gt;*/         &lt;/script&gt;         &lt;script type=text/javascript src=//blueserving.com/js/show_ads_blueseed.js?pubId=2229&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">TC057</t>
   </si>
   <si>
@@ -1688,6 +1790,18 @@
  - Có gắn code fallback</t>
   </si>
   <si>
+    <t xml:space="preserve">Return backup:
+pid: 0681c381c8364325a1a242bd9340eebf
+aid: 
+zid: dba74dc8bb6d42c4a17147b6b3777e22
+wid: ad85c58281be4b9682a42a5c9b7dd219
+mediaUrl: http://media_obj.9730a73b.cdnviet.com
+trackingUrl: http://tracking.yomedia.vn
+analyticUrl: http://analytics.yomedia.vn
+fallback: http://req.tidaltv.com/vmm.ashx?mt=1&amp;pid=34025&amp;ap=0&amp;xf=35&amp;rand=[timestamp]&amp;refUrl=[ref]
+vast_version: 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">TC058</t>
   </si>
   <si>
@@ -1696,12 +1810,36 @@
  - Không có gắn code fallback</t>
   </si>
   <si>
+    <t xml:space="preserve">pid: aff35e3ae4414d4a8b9f2e11e3283f83
+aid: 
+wid: ad85c58281be4b9682a42a5c9b7dd219
+category: {}
+categoryWebsite: {}
+analyticUrl: http://analytics.yomedia.vn
+mediaUrl: http://media_obj.9730a73b.cdnviet.com
+trackingUrl: http://tracking.yomedia.vn
+analyticUrl: http://analytics.yomedia.vn
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">TC059</t>
   </si>
   <si>
     <t xml:space="preserve">Trường hợp request endpoint /vast và:
  - Object website null.
  - Không có gắn code fallback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pid: 0681c381c8364325a1a242bd9340eebf
+aid: 
+wid: ad85c58281be4b9682a42a5c9b7dd219
+category: {}
+categoryWebsite: {}
+analyticUrl: http://analytics.yomedia.vn
+mediaUrl: http://media_obj.9730a73b.cdnviet.com
+trackingUrl: http://tracking.yomedia.vn
+analyticUrl: http://analytics.yomedia.vn
+vast_version: 2</t>
   </si>
   <si>
     <t xml:space="preserve">TC060</t>
@@ -2095,7 +2233,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2146,6 +2284,11 @@
       <name val="Cambria"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2251,17 +2394,17 @@
   </sheetPr>
   <dimension ref="A1:E176"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A57" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B59" activeCellId="0" sqref="B59"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A60" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A61" activeCellId="0" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.5561224489796"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="55.4795918367347"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="72.6275510204082"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="71.5459183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="54.8061224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="71.6785714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="70.734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2277,6 +2420,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
@@ -2291,6 +2435,7 @@
       <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="E2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
@@ -2305,6 +2450,7 @@
       <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="E3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
@@ -2319,6 +2465,7 @@
       <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="E4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
@@ -2333,6 +2480,7 @@
       <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="E5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
@@ -3007,7 +3155,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="149.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
         <v>178</v>
       </c>
@@ -3021,409 +3169,433 @@
         <v>180</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="190.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
         <v>181</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-    </row>
-    <row r="56" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C55" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="190.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-    </row>
-    <row r="57" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>185</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="379.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-    </row>
-    <row r="58" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>188</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="176.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-    </row>
-    <row r="59" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>191</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-    </row>
-    <row r="60" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>194</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
+        <v>197</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
     </row>
     <row r="62" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
     </row>
     <row r="63" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
     </row>
     <row r="64" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
     </row>
     <row r="65" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
     </row>
     <row r="66" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
     </row>
     <row r="67" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
     </row>
     <row r="68" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
     </row>
     <row r="69" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="3" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
     </row>
     <row r="70" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
     </row>
     <row r="71" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
     </row>
     <row r="72" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
     </row>
     <row r="73" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
     </row>
     <row r="74" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="3" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
     </row>
     <row r="75" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="3" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
     </row>
     <row r="76" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
     </row>
     <row r="77" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
     </row>
     <row r="78" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
     </row>
     <row r="79" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="3" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
     </row>
     <row r="80" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
     </row>
     <row r="81" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
     </row>
     <row r="82" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
     </row>
     <row r="83" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
     </row>
     <row r="84" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
     </row>
     <row r="85" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
     </row>
     <row r="86" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
     </row>
     <row r="87" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
     </row>
     <row r="88" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="3" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
     </row>
     <row r="89" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="3" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
     </row>
     <row r="90" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
     </row>
     <row r="91" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
     </row>
     <row r="92" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="3" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
     </row>
     <row r="93" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="3" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
     </row>
     <row r="94" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="3" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
     </row>
     <row r="95" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="3" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
@@ -3431,7 +3603,7 @@
     </row>
     <row r="96" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="3" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
@@ -3439,7 +3611,7 @@
     </row>
     <row r="97" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="3" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
@@ -3447,7 +3619,7 @@
     </row>
     <row r="98" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="3" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
@@ -3455,7 +3627,7 @@
     </row>
     <row r="99" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="3" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
@@ -3463,7 +3635,7 @@
     </row>
     <row r="100" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="3" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
@@ -3471,7 +3643,7 @@
     </row>
     <row r="101" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="3" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
@@ -3479,7 +3651,7 @@
     </row>
     <row r="102" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="3" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
@@ -3487,7 +3659,7 @@
     </row>
     <row r="103" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="3" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
@@ -3495,7 +3667,7 @@
     </row>
     <row r="104" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="3" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
@@ -3503,7 +3675,7 @@
     </row>
     <row r="105" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="3" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
@@ -3511,7 +3683,7 @@
     </row>
     <row r="106" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="3" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
@@ -3519,7 +3691,7 @@
     </row>
     <row r="107" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="3" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
@@ -3527,7 +3699,7 @@
     </row>
     <row r="108" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="3" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
@@ -3535,7 +3707,7 @@
     </row>
     <row r="109" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="3" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
@@ -3543,7 +3715,7 @@
     </row>
     <row r="110" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="3" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
@@ -3551,7 +3723,7 @@
     </row>
     <row r="111" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="3" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
@@ -3559,7 +3731,7 @@
     </row>
     <row r="112" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="3" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
@@ -3567,7 +3739,7 @@
     </row>
     <row r="113" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="3" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
@@ -3575,7 +3747,7 @@
     </row>
     <row r="114" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="3" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
@@ -3583,7 +3755,7 @@
     </row>
     <row r="115" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="3" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
@@ -3591,7 +3763,7 @@
     </row>
     <row r="116" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="3" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
@@ -3599,7 +3771,7 @@
     </row>
     <row r="117" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="3" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
@@ -3607,7 +3779,7 @@
     </row>
     <row r="118" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="3" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
@@ -3615,7 +3787,7 @@
     </row>
     <row r="119" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="3" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
@@ -3623,7 +3795,7 @@
     </row>
     <row r="120" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="3" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
@@ -3631,7 +3803,7 @@
     </row>
     <row r="121" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="3" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
@@ -3639,7 +3811,7 @@
     </row>
     <row r="122" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="3" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
@@ -3647,7 +3819,7 @@
     </row>
     <row r="123" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="3" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
@@ -3655,7 +3827,7 @@
     </row>
     <row r="124" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="3" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
@@ -3663,7 +3835,7 @@
     </row>
     <row r="125" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="3" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
@@ -3671,7 +3843,7 @@
     </row>
     <row r="126" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="3" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
@@ -3679,7 +3851,7 @@
     </row>
     <row r="127" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="3" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
@@ -3687,7 +3859,7 @@
     </row>
     <row r="128" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="3" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
@@ -3695,7 +3867,7 @@
     </row>
     <row r="129" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="3" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B129" s="6"/>
       <c r="C129" s="6"/>

--- a/Testcase Delivery.xlsx
+++ b/Testcase Delivery.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="491">
   <si>
     <t xml:space="preserve">No</t>
   </si>
@@ -1664,45 +1664,19 @@
  - Không có gắn code fallback</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">pid: aff35e3ae4414d4a8b9f2e11e3283f83
+    <t xml:space="preserve">pid: aff35e3ae4414d4a8b9f2e11e3283f83
 aid: 
 wid: ad85c58281be4b9682a42a5c9b7dd219
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">category: { category_name: 'News',
+category: { category_name: 'News',
   iab: 'IAB12',
   trackid: '2016070110000000012' }
 categoryWebsite: [ '2016090700000000011',
   '2016070110000000012',
   '2016070110000000006' ]
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">analyticUrl: http://analytics.yomedia.vn
 mediaUrl: http://media_obj.9730a73b.cdnviet.com
 trackingUrl: http://tracking.yomedia.vn
 analyticUrl: http://analytics.yomedia.vn
 </t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">TC055</t>
@@ -1713,45 +1687,19 @@
  - Không có gắn code fallback</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">pid: 0681c381c8364325a1a242bd9340eebf
+    <t xml:space="preserve">pid: 0681c381c8364325a1a242bd9340eebf
 aid: 
 wid: ad85c58281be4b9682a42a5c9b7dd219
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">category: { category_name: 'News',
+category: { category_name: 'News',
   iab: 'IAB12',
   trackid: '2016070110000000012' }
 categoryWebsite: [ '2016090700000000011',
   '2016070110000000012',
   '2016070110000000006' ]
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">analyticUrl: http://analytics.yomedia.vn
 mediaUrl: http://media_obj.9730a73b.cdnviet.com
 trackingUrl: http://tracking.yomedia.vn
 analyticUrl: http://analytics.yomedia.vn
 vast_version: 2</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">TC056</t>
@@ -1815,7 +1763,6 @@
 wid: ad85c58281be4b9682a42a5c9b7dd219
 category: {}
 categoryWebsite: {}
-analyticUrl: http://analytics.yomedia.vn
 mediaUrl: http://media_obj.9730a73b.cdnviet.com
 trackingUrl: http://tracking.yomedia.vn
 analyticUrl: http://analytics.yomedia.vn
@@ -1835,7 +1782,6 @@
 wid: ad85c58281be4b9682a42a5c9b7dd219
 category: {}
 categoryWebsite: {}
-analyticUrl: http://analytics.yomedia.vn
 mediaUrl: http://media_obj.9730a73b.cdnviet.com
 trackingUrl: http://tracking.yomedia.vn
 analyticUrl: http://analytics.yomedia.vn
@@ -1848,10 +1794,153 @@
     <t xml:space="preserve">Trường hợp placement-&gt;type=display nhưng request từ mobile</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/delivery?pid=aff35e3ae4414d4a8b9f2e11e3283f83&amp;is_mobile=0&amp;sw=1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Request Headers:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Referer:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">http://demo.yomedia.v2/setup-ad/interscroller/mobile/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">User-Agent:Mozilla/5.0 (iPhone; CPU iPhone OS 9_1 like Mac OS X) AppleWebKit/601.1.46 (KHTML, like Gecko) Version/9.0 Mobile/13B143 Safari/601.1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Return no ad
+pid: aff35e3ae4414d4a8b9f2e11e3283f83
+aid: 
+wid: ad85c58281be4b9682a42a5c9b7dd219
+category: {}
+categoryWebsite: {}
+mediaUrl: http://media_obj.9730a73b.cdnviet.com
+trackingUrl: http://tracking.yomedia.vn
+analyticUrl: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">http://analytics.yomedia.vn</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">TC061</t>
   </si>
   <si>
     <t xml:space="preserve">Trường hợp placement-&gt;type=mobile nhưng request từ PC</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/delivery?pid=76cdd53f8cf743a890c129b4dab8c56c&amp;div=abdf&amp;is_mobile=0&amp;sw=1366&amp;sh=768&amp;scd=24&amp;fv=26&amp;l=ZW4tVVM=&amp;rt=2&amp;ec=1&amp;r=2020274124
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Request Headers:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Referer:http://demo.yomedia.vn/setup-ad/balloon/
+User-Agent:Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/59.0.3071.86 Safari/537.36</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Return no ad
+pid: 76cdd53f8cf743a890c129b4dab8c56c
+aid: 
+wid: ad85c58281be4b9682a42a5c9b7dd219
+category: {}
+categoryWebsite: {}
+mediaUrl: http://media_obj.9730a73b.cdnviet.com
+trackingUrl: http://tracking.yomedia.vn
+analyticUrl: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">http://analytics.yomedia.vn</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">TC062</t>
@@ -1862,6 +1951,87 @@
  - Referer và domain match.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/delivery?pid=aff35e3ae4414d4a8b9f2e11e3283f83&amp;is_mobile=0&amp;sw=1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Request Headers:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Referer:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">http://demo.yomedia.vn/setup-ad/balloon
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">User-Agent:Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/59.0.3071.86 Safari/537.36</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">pid: aff35e3ae4414d4a8b9f2e11e3283f83
+aid: f6b6cb7d3fc64a8ba1d015dc919c8efa
+fid: 76c57bc17b2b48e4af290186ab3d559a
+wid: ad85c58281be4b9682a42a5c9b7dd219
+creative: { source: '2017/04/toshiba/tulanh/index.html',
+  max_width: '500',
+  max_height: '300',
+  min_width: '300',
+  min_height: '250',
+  bar_height: '100' }
+landingPage: http://yomedia.vn
+thirdtracking: { impression: [ 'http://ad.doubleclick.net/ddm/trackimp/N52901.1973702YOMEDIA.VN/B10265079.137788309;dc_trk_aid=310142421;dc_trk_cid=73837038;ord=[timestamp];dc_lat=;dc_rdid=;tag_for_child_directed_treatment=?' ] }
+gaTrackings: []
+category: { category_name: 'News',
+  iab: 'IAB12',
+  trackid: '2016070110000000012' }
+categoryWebsite: [ '2016090700000000011',
+  '2016070110000000012',
+  '2016070110000000006' ]
+eid: 
+mediaUrl: http://media_obj.9730a73b.cdnviet.com
+trackingUrl: http://tracking.yomedia.vn
+analyticUrl: http://analytics.yomedia.vn
+placementSetting: {}
+overReport: 0
+referer: http://demo.yomedia.vn/setup-ad/balloon/
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">TC063</t>
   </si>
   <si>
@@ -1870,6 +2040,87 @@
  - Referer và domain không match.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/delivery?pid=aff35e3ae4414d4a8b9f2e11e3283f83&amp;is_mobile=0&amp;sw=1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Request Headers:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Referer:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">http://tuoitre.vn
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">User-Agent:Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/59.0.3071.86 Safari/537.36</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">return no ad
+pid: aff35e3ae4414d4a8b9f2e11e3283f83
+aid: 
+wid: ad85c58281be4b9682a42a5c9b7dd219
+category: {}
+categoryWebsite: {}
+mediaUrl: http://media_obj.9730a73b.cdnviet.com
+trackingUrl: http://tracking.yomedia.vn
+analyticUrl: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">http://analytics.yomedia.vn</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">TC064</t>
   </si>
   <si>
@@ -1886,319 +2137,1110 @@
  - Referer và domain không match.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/vast?pid=0681c381c8364325a1a242bd9340eebf&amp;ec=0
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Request Headers:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Referer:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">http://tuoitre.vn
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">User-Agent:Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/59.0.3071.86 Safari/537.36</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Return vast no ad
+pid: 0681c381c8364325a1a242bd9340eebf
+aid: 
+wid: ad85c58281be4b9682a42a5c9b7dd219
+category: {}
+categoryWebsite: {}
+mediaUrl: http://media_obj.9730a73b.cdnviet.com
+trackingUrl: http://tracking.yomedia.vn
+analyticUrl: http://analytics.yomedia.vn
+vast_version: 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">TC066</t>
   </si>
   <si>
-    <t xml:space="preserve">Trường hợp:
- - Object advertisement null.
- - Chỉ offer 1 flight.
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Trường hợp request endpoint /delivery và:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Chỉ offer 1 flight.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Object advertisement null.
  - Có gắn code fallback</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Return backup, random:
+pid: aff35e3ae4414d4a8b9f2e11e3283f83
+aid: 
+zid: 1a7cf454312443ccad4bc03c5828a5ac
+wid: ad85c58281be4b9682a42a5c9b7dd219
+mediaUrl: http://media_obj.9730a73b.cdnviet.com
+trackingUrl: http://tracking.yomedia.vn
+analyticUrl: http://analytics.yomedia.vn
+fallback: &lt;script type="text/javascript"&gt;         /*&lt;![CDATA[*/         blueseed_key = "f9af373d5b7ce4e838d44118a5490da9";         blueseed_time = new Date().getTime();         blueseed_channel = "";         blueseed_code_format = "ads-sync.js";         blueseed_click = "";         blueseed_custom_params = {};         /*]]&gt;*/         &lt;/script&gt;         &lt;script type=text/javascript src=//blueserving.com/js/show_ads_blueseed.js?pubId=2229&gt;&lt;/script&gt;
+Hoặc
+pid: aff35e3ae4414d4a8b9f2e11e3283f83
+aid: 
+zid: 1a7cf454312443ccad4bc03c5828a5ac
+wid: ad85c58281be4b9682a42a5c9b7dd219
+mediaUrl: http://media_obj.9730a73b.cdnviet.com
+trackingUrl: http://tracking.yomedia.vn
+analyticUrl: http://analytics.yomedia.vn
+fallback: &lt;script type="text/javascript"&gt;         /*&lt;![CDATA[*/         blueseed_key = "f9af373d5b7ce4e838d44118a5490da9";         blueseed_time = new Date().getTime();         blueseed_channel = "";         blueseed_code_format = "ads-sync.js";         blueseed_click = "";         blueseed_custom_params = {};         /*]]&gt;*/         &lt;/script&gt;         &lt;script type=text/javascript src=//blueserving.com/js/show_ads_blueseed.js?pubId=2229&gt;&lt;/script&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">TC067</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Trường hợp request endpoint /delivery và:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Chỉ offer 1 flight.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Object advertisement null.
+ - Không có gắn code fallback</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Return no ad
+pid: aff35e3ae4414d4a8b9f2e11e3283f83
+aid: 
+wid: ad85c58281be4b9682a42a5c9b7dd219
+category: {}
+categoryWebsite: [ '2016090700000000011',
+  '2016070110000000012',
+  '2016070110000000006' ]
+mediaUrl: http://media_obj.9730a73b.cdnviet.com
+trackingUrl: http://tracking.yomedia.vn
+analyticUrl: http://analytics.yomedia.vn
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">TC068</t>
   </si>
   <si>
-    <t xml:space="preserve">Trường hợp:
- - Object advertisement null.
- - Chỉ offer 1 flight.
- - Không có gắn code fallback</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trường hợp:
+    <t xml:space="preserve">Trường hợp request endpoint /delivery và:
  - Offer nhiều flight.
  - Có 1 object advertisement null.</t>
   </si>
   <si>
+    <t xml:space="preserve">pid: aff35e3ae4414d4a8b9f2e11e3283f83
+aid: f390909a956f4f18b50bc58838332673
+fid: 503d5d84fedf41519d93ab465ff60bf0
+wid: ad85c58281be4b9682a42a5c9b7dd219
+creative: { source: '2016/12/toonies/balloon/index.html',
+  max_width: '500',
+  max_height: '300',
+  min_width: '300',
+  min_height: '250',
+  bar_height: '100',
+  duration: '0' }
+landingPage: http://yomedia.vn
+thirdtracking: {}
+gaTrackings: []
+category: { category_name: 'News',
+  iab: 'IAB12',
+  trackid: '2016070110000000012' }
+categoryWebsite: [ '2016090700000000011',
+  '2016070110000000012',
+  '2016070110000000006' ]
+eid: 
+mediaUrl: http://media_obj.9730a73b.cdnviet.com
+trackingUrl: http://tracking.yomedia.vn
+analyticUrl: http://analytics.yomedia.vn
+placementSetting: {}
+overReport: 0
+referer: http://demo.yomedia.vn/setup-ad/balloon/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC069</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Trường hợp request endpoint /vast và:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Chỉ offer 1 flight.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Object advertisement null.
+ - Có gắn code fallback</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Return vast backup
+pid: 0681c381c8364325a1a242bd9340eebf
+aid: 
+zid: dba74dc8bb6d42c4a17147b6b3777e22
+wid: ad85c58281be4b9682a42a5c9b7dd219
+mediaUrl: http://media_obj.9730a73b.cdnviet.com
+trackingUrl: http://tracking.yomedia.vn
+analyticUrl: http://analytics.yomedia.vn
+fallback: http://req.tidaltv.com/vmm.ashx?mt=1&amp;pid=34025&amp;ap=0&amp;xf=35&amp;rand=[timestamp]&amp;refUrl=[ref]
+vast_version: 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">TC070</t>
   </si>
   <si>
-    <t xml:space="preserve">Trường hợp:
- - Object campaign null.
- - Chỉ offer 1 flight.
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Trường hợp request endpoint /vast và:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Chỉ offer 1 flight.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Object advertisement null.
+ - Không có gắn code fallback</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">return vast no ad
+pid: 0681c381c8364325a1a242bd9340eebf
+aid: 
+wid: ad85c58281be4b9682a42a5c9b7dd219
+category: {}
+categoryWebsite: [ '2016090700000000011',
+  '2016070110000000012',
+  '2016070110000000006' ]
+mediaUrl: http://media_obj.9730a73b.cdnviet.com
+trackingUrl: http://tracking.yomedia.vn
+analyticUrl: http://analytics.yomedia.vn
+vast_version: 2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trường hợp request endpoint /vast và:
+ - Offer nhiều flight.
+ - Có 1 object advertisement null.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC072</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Trường hợp request endpoint /delivery và:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Chỉ offer 1 flight.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Object campaign null.
  - Có gắn code fallback</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trường hợp:
- - Object campaign null.
- - Chỉ offer 1 flight.
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TC073</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Trường hợp request endpoint /delivery và:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Chỉ offer 1 flight.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Object campaign null.
  - Không có gắn code fallback</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trường hợp:
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">pid: aff35e3ae4414d4a8b9f2e11e3283f83
+aid: 
+wid: ad85c58281be4b9682a42a5c9b7dd219
+category: {}
+categoryWebsite: [ '2016090700000000011',
+  '2016070110000000012',
+  '2016070110000000006' ]
+mediaUrl: http://media_obj.9730a73b.cdnviet.com
+trackingUrl: http://tracking.yomedia.vn
+analyticUrl: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">http://analytics.yomedia.vn</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TC074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trường hợp request endpoint /delivery và:
  - Offer nhiều flight.
  - Có 1 object campaign null.</t>
   </si>
   <si>
-    <t xml:space="preserve">TC073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trường hợp:
- - Object banner null.
- - Chỉ offer 1 flight.
+    <t xml:space="preserve">pid: aff35e3ae4414d4a8b9f2e11e3283f83
+aid: f390909a956f4f18b50bc58838332673
+fid: 503d5d84fedf41519d93ab465ff60bf0
+wid: ad85c58281be4b9682a42a5c9b7dd219
+creative: { source: '2016/12/toonies/balloon/index.html',
+  max_width: '500',
+  max_height: '300',
+  min_width: '300',
+  min_height: '250',
+  bar_height: '100',
+  duration: '0' }
+landingPage: http://yomedia.vn
+thirdtracking: {}
+gaTrackings: []
+category: { category_name: 'News',
+  iab: 'IAB12',
+  trackid: '2016070110000000012' }
+categoryWebsite: [ '2016090700000000011',
+  '2016070110000000012',
+  '2016070110000000006' ]
+eid: 
+mediaUrl: http://media_obj.9730a73b.cdnviet.com
+trackingUrl: http://tracking.yomedia.vn
+analyticUrl: http://analytics.yomedia.vn
+placementSetting: {}
+overReport: 0
+referer: http://demo.yomedia.vn/setup-ad/balloon/
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC075</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Trường hợp request endpoint /vast và:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Chỉ offer 1 flight.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Object campaign null.
  - Có gắn code fallback</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trường hợp:
- - Object banner null.
- - Chỉ offer 1 flight.
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">pid: 0681c381c8364325a1a242bd9340eebf
+aid: 
+zid: dba74dc8bb6d42c4a17147b6b3777e22
+wid: ad85c58281be4b9682a42a5c9b7dd219
+mediaUrl: http://media_obj.9730a73b.cdnviet.com
+trackingUrl: http://tracking.yomedia.vn
+analyticUrl: http://analytics.yomedia.vn
+fallback: http://req.tidaltv.com/vmm.ashx?mt=1&amp;pid=34025&amp;ap=0&amp;xf=35&amp;rand=[timestamp]&amp;refUrl=[ref]
+vast_version: 2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC076</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Trường hợp request endpoint /vast và:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Chỉ offer 1 flight.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Object campaign null.
  - Không có gắn code fallback</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trường hợp:
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">pid: 0681c381c8364325a1a242bd9340eebf
+aid: 
+wid: ad85c58281be4b9682a42a5c9b7dd219
+category: {}
+categoryWebsite: [ '2016090700000000011',
+  '2016070110000000012',
+  '2016070110000000006' ]
+mediaUrl: http://media_obj.9730a73b.cdnviet.com
+trackingUrl: http://tracking.yomedia.vn
+analyticUrl: http://analytics.yomedia.vn
+vast_version: 2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trường hợp request endpoint /vast và:
+ - Offer nhiều flight.
+ - Có 1 object campaign null.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC078</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Trường hợp request endpoint /delivery và:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Chỉ offer 1 flight.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Object banner null.
+ - Có gắn code fallback</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TC079</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Trường hợp request endpoint /delivery và:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Chỉ offer 1 flight.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Object banner null.
+ - Không có gắn code fallback</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TC080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trường hợp request endpoint /delivery và:
  - Offer nhiều flight.
  - Có 1 object banner null.</t>
   </si>
   <si>
-    <t xml:space="preserve">TC076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trường hợp:
- - Object delivery null.
- - Chỉ offer 1 flight.
+    <t xml:space="preserve">TC081</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Trường hợp request endpoint /vast và:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Chỉ offer 1 flight.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Object banner null.
  - Có gắn code fallback</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trường hợp:
- - Object delivery null.
- - Chỉ offer 1 flight.
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TC082</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Trường hợp request endpoint /vast và:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Chỉ offer 1 flight.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Object banner null.
  - Không có gắn code fallback</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trường hợp:
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TC083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trường hợp request endpoint /vast và:
+ - Offer nhiều flight.
+ - Có 1 object banner null.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC084</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Trường hợp request endpoint /delivery và:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Chỉ offer 1 flight.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Object delivery null.
+ - Có gắn code fallback</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TC085</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Trường hợp request endpoint /delivery và:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Chỉ offer 1 flight.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Object delivery null.
+ - Không có gắn code fallback</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TC086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trường hợp request endpoint /delivery và:
  - Offer nhiều flight.
  - Có 1 object delivery null.</t>
   </si>
   <si>
-    <t xml:space="preserve">TC079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trường hợp:
+    <t xml:space="preserve">TC087</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Trường hợp request endpoint /vast và:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Chỉ offer 1 flight.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Object delivery null.
+ - Có gắn code fallback</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TC088</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Trường hợp request endpoint /vast và:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Chỉ offer 1 flight.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Object delivery null.
+ - Không có gắn code fallback</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TC089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trường hợp request endpoint /vast và:
+ - Offer nhiều flight.
+ - Có 1 object delivery null.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trường hợp request endpoint /delivery và:
  - Chỉ offer 1 flight nhưng object flight null.
  - Có gắn code fallback</t>
   </si>
   <si>
-    <t xml:space="preserve">TC080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trường hợp:
+    <t xml:space="preserve">TC091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trường hợp request endpoint /delivery và:
  - Chỉ offer 1 flight nhưng object flight null.
  - Không có gắn code fallback</t>
   </si>
   <si>
-    <t xml:space="preserve">TC081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trường hợp:
+    <t xml:space="preserve">TC092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trường hợp request endpoint /delivery và:
  - Offer nhiều flight.
  - Có 1 object flight null.</t>
   </si>
   <si>
-    <t xml:space="preserve">TC082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trường hợp:
+    <t xml:space="preserve">TC093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trường hợp request endpoint /vast và:
+ - Chỉ offer 1 flight nhưng object flight null.
+ - Có gắn code fallback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trường hợp request endpoint /vast và:
+ - Chỉ offer 1 flight nhưng object flight null.
+ - Không có gắn code fallback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trường hợp request endpoint /vast và:
+ - Offer nhiều flight.
+ - Có 1 object flight null.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trường hợp request endpoint /delivery và:
  - Offer 1 flight.
  - Date range không hợp lệ.
  - Có gắn code fallback</t>
   </si>
   <si>
-    <t xml:space="preserve">TC083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trường hợp:
+    <t xml:space="preserve">TC097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trường hợp request endpoint /delivery và:
  - Offer 1 flight.
  - Date range không hợp lệ.
  - Không gắn code fallback</t>
   </si>
   <si>
-    <t xml:space="preserve">TC084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trường hợp:
+    <t xml:space="preserve">TC098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trường hợp request endpoint /delivery và:
  - Offter nhiều flight.
  - Có 1 flight có date range không hợp lệ.</t>
   </si>
   <si>
-    <t xml:space="preserve">TC085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trường hợp:
+    <t xml:space="preserve">TC099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trường hợp request endpoint /vast và:
+ - Offer 1 flight.
+ - Date range không hợp lệ.
+ - Có gắn code fallback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trường hợp request endpoint /vast và:
+ - Offer 1 flight.
+ - Date range không hợp lệ.
+ - Không gắn code fallback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trường hợp request endpoint /vast và:
+ - Offter nhiều flight.
+ - Có 1 flight có date range không hợp lệ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trường hợp request endpoint /delivery và:
  - Offer 1 flight.
  - Hour không hợp lệ.
  - Có gắn code fallback</t>
   </si>
   <si>
-    <t xml:space="preserve">TC086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trường hợp:
+    <t xml:space="preserve">TC103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trường hợp request endpoint /delivery và:
  - Offer 1 flight.
  - Hour không hợp lệ.
  - Không gắn code fallback</t>
   </si>
   <si>
-    <t xml:space="preserve">TC087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trường hợp:
+    <t xml:space="preserve">TC104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trường hợp request endpoint /delivery và:
  - Offter nhiều flight.
  - Có 1 flight có hour không hợp lệ.</t>
   </si>
   <si>
-    <t xml:space="preserve">TC088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trường hợp:
+    <t xml:space="preserve">TC105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trường hợp request endpoint /vast và:
+ - Offer 1 flight.
+ - Hour không hợp lệ.
+ - Có gắn code fallback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trường hợp request endpoint /vast và:
+ - Offer 1 flight.
+ - Hour không hợp lệ.
+ - Không gắn code fallback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trường hợp request endpoint /vast và:
+ - Offter nhiều flight.
+ - Có 1 flight có hour không hợp lệ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trường hợp request endpoint /delivery và:
  - Offer 1 flight.
  - day_week không hợp lệ.
  - Có gắn code fallback</t>
   </si>
   <si>
-    <t xml:space="preserve">TC089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trường hợp:
+    <t xml:space="preserve">TC109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trường hợp request endpoint /delivery và:
  - Offer 1 flight.
  - day_week không hợp lệ.
  - Không gắn code fallback</t>
   </si>
   <si>
-    <t xml:space="preserve">TC090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trường hợp:
+    <t xml:space="preserve">TC110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trường hợp request endpoint /delivery và:
  - Offter nhiều flight.
  - Có 1 flight có day_week không hợp lệ.</t>
   </si>
   <si>
-    <t xml:space="preserve">TC091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trường hợp:
+    <t xml:space="preserve">TC111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trường hợp request endpoint /vast và:
+ - Offer 1 flight.
+ - day_week không hợp lệ.
+ - Có gắn code fallback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trường hợp request endpoint /vast và:
+ - Offer 1 flight.
+ - day_week không hợp lệ.
+ - Không gắn code fallback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trường hợp request endpoint /vast và:
+ - Offter nhiều flight.
+ - Có 1 flight có day_week không hợp lệ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trường hợp request endpoint /delivery và:
  - Offer 1 flight.
  - day_month không hợp lệ.
  - Có gắn code fallback</t>
   </si>
   <si>
-    <t xml:space="preserve">TC092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trường hợp:
+    <t xml:space="preserve">TC115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trường hợp request endpoint /delivery và:
  - Offer 1 flight.
  - day_month không hợp lệ.
  - Không gắn code fallback</t>
   </si>
   <si>
-    <t xml:space="preserve">TC093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trường hợp:
+    <t xml:space="preserve">TC116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trường hợp request endpoint /delivery và:
  - Offter nhiều flight.
  - Có 1 flight có day_month không hợp lệ.</t>
   </si>
   <si>
-    <t xml:space="preserve">TC094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC116</t>
-  </si>
-  <si>
     <t xml:space="preserve">TC117</t>
   </si>
   <si>
+    <t xml:space="preserve">Trường hợp request endpoint /vast và:
+ - Offer 1 flight.
+ - day_month không hợp lệ.
+ - Có gắn code fallback</t>
+  </si>
+  <si>
     <t xml:space="preserve">TC118</t>
   </si>
   <si>
+    <t xml:space="preserve">Trường hợp request endpoint /vast và:
+ - Offer 1 flight.
+ - day_month không hợp lệ.
+ - Không gắn code fallback</t>
+  </si>
+  <si>
     <t xml:space="preserve">TC119</t>
   </si>
   <si>
+    <t xml:space="preserve">Trường hợp request endpoint /vast và:
+ - Offter nhiều flight.
+ - Có 1 flight có day_month không hợp lệ.</t>
+  </si>
+  <si>
     <t xml:space="preserve">TC120</t>
   </si>
   <si>
@@ -2224,6 +3266,438 @@
   </si>
   <si>
     <t xml:space="preserve">TC128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC270</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC272</t>
   </si>
 </sst>
 </file>
@@ -2233,7 +3707,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2281,6 +3755,13 @@
       <b val="true"/>
       <i val="true"/>
       <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Cambria"/>
       <family val="1"/>
       <charset val="1"/>
@@ -2392,19 +3873,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E176"/>
+  <dimension ref="A1:E273"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A60" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A61" activeCellId="0" sqref="A61"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C97" activeCellId="0" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="54.8061224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="71.6785714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="70.734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="54.265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="70.8724489795918"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="69.9234693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="13.6326530612245"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3169,7 +4650,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="190.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="176.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
         <v>181</v>
       </c>
@@ -3183,7 +4664,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="190.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="176.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
         <v>184</v>
       </c>
@@ -3225,7 +4706,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="122.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
         <v>193</v>
       </c>
@@ -3239,7 +4720,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="122.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="s">
         <v>196</v>
       </c>
@@ -3253,909 +4734,1844 @@
         <v>198</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
         <v>199</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-    </row>
-    <row r="62" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C61" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-    </row>
-    <row r="63" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>204</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="419.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-    </row>
-    <row r="64" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>208</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-    </row>
-    <row r="65" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>212</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="379.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-    </row>
-    <row r="66" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>216</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="460.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B66" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-    </row>
-    <row r="67" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-    </row>
-    <row r="68" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D67" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="176.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-    </row>
-    <row r="69" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>225</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="365.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="3" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-    </row>
-    <row r="70" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>228</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="176.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-    </row>
-    <row r="71" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>231</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="190.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-    </row>
-    <row r="72" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>234</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="446.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-    </row>
-    <row r="73" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>237</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="460.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="B73" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D73" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-    </row>
-    <row r="74" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="74" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="3" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-    </row>
-    <row r="75" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>241</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="379.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="3" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-    </row>
-    <row r="76" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>244</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="163.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-    </row>
-    <row r="77" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>247</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="163.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-    </row>
-    <row r="78" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>250</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="446.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-    </row>
-    <row r="79" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>253</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="460.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="3" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-    </row>
-    <row r="80" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>255</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-    </row>
-    <row r="81" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>257</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="379.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-    </row>
-    <row r="82" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>259</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="163.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-    </row>
-    <row r="83" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>261</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="163.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="446.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="460.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D86" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="B83" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-    </row>
-    <row r="84" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="B84" s="6" t="s">
+    </row>
+    <row r="87" customFormat="false" ht="379.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D87" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-    </row>
-    <row r="85" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-    </row>
-    <row r="86" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="3" t="s">
+    </row>
+    <row r="88" customFormat="false" ht="163.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D88" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="B86" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-    </row>
-    <row r="87" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="B87" s="6" t="s">
+    </row>
+    <row r="89" customFormat="false" ht="163.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D89" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-    </row>
-    <row r="88" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-    </row>
-    <row r="89" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-    </row>
-    <row r="90" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="90" customFormat="false" ht="446.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-    </row>
-    <row r="91" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>276</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="460.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-    </row>
-    <row r="92" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>278</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-    </row>
-    <row r="93" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>280</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="379.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-    </row>
-    <row r="94" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="163.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-    </row>
-    <row r="95" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>284</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="163.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="B95" s="6"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-    </row>
-    <row r="96" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>286</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="446.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-    </row>
-    <row r="97" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>288</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="95.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
+        <v>290</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>209</v>
+      </c>
       <c r="D97" s="6"/>
     </row>
-    <row r="98" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="95.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="B98" s="6"/>
-      <c r="C98" s="6"/>
+        <v>292</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>209</v>
+      </c>
       <c r="D98" s="6"/>
     </row>
-    <row r="99" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="95.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="B99" s="6"/>
-      <c r="C99" s="6"/>
+        <v>294</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>209</v>
+      </c>
       <c r="D99" s="6"/>
     </row>
-    <row r="100" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="82.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="B100" s="6"/>
-      <c r="C100" s="6"/>
+        <v>296</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="D100" s="6"/>
     </row>
-    <row r="101" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="82.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="B101" s="6"/>
-      <c r="C101" s="6"/>
+        <v>298</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="D101" s="6"/>
     </row>
-    <row r="102" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="82.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="B102" s="6"/>
-      <c r="C102" s="6"/>
+        <v>300</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="D102" s="6"/>
     </row>
-    <row r="103" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="95.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B103" s="6"/>
-      <c r="C103" s="6"/>
+        <v>302</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>209</v>
+      </c>
       <c r="D103" s="6"/>
     </row>
-    <row r="104" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="95.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="B104" s="6"/>
-      <c r="C104" s="6"/>
+        <v>304</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>209</v>
+      </c>
       <c r="D104" s="6"/>
     </row>
-    <row r="105" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="95.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="B105" s="6"/>
-      <c r="C105" s="6"/>
+        <v>306</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>209</v>
+      </c>
       <c r="D105" s="6"/>
     </row>
-    <row r="106" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="82.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="B106" s="6"/>
-      <c r="C106" s="6"/>
+        <v>308</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="D106" s="6"/>
     </row>
-    <row r="107" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="82.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="B107" s="6"/>
-      <c r="C107" s="6"/>
+        <v>310</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="D107" s="6"/>
     </row>
-    <row r="108" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="82.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="B108" s="6"/>
-      <c r="C108" s="6"/>
+        <v>312</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="D108" s="6"/>
     </row>
-    <row r="109" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="95.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="B109" s="6"/>
-      <c r="C109" s="6"/>
+        <v>314</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>209</v>
+      </c>
       <c r="D109" s="6"/>
     </row>
-    <row r="110" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="95.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="B110" s="6"/>
-      <c r="C110" s="6"/>
+        <v>316</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>209</v>
+      </c>
       <c r="D110" s="6"/>
     </row>
-    <row r="111" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="95.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B111" s="6"/>
-      <c r="C111" s="6"/>
+        <v>318</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>209</v>
+      </c>
       <c r="D111" s="6"/>
     </row>
-    <row r="112" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="82.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="B112" s="6"/>
-      <c r="C112" s="6"/>
+        <v>320</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="D112" s="6"/>
     </row>
-    <row r="113" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="82.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="B113" s="6"/>
-      <c r="C113" s="6"/>
+        <v>322</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="D113" s="6"/>
     </row>
-    <row r="114" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="82.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="B114" s="6"/>
-      <c r="C114" s="6"/>
+        <v>324</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="D114" s="6"/>
     </row>
-    <row r="115" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="95.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="B115" s="6"/>
-      <c r="C115" s="6"/>
+        <v>326</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>209</v>
+      </c>
       <c r="D115" s="6"/>
     </row>
-    <row r="116" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="95.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="B116" s="6"/>
-      <c r="C116" s="6"/>
+        <v>328</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>209</v>
+      </c>
       <c r="D116" s="6"/>
     </row>
-    <row r="117" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="95.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="B117" s="6"/>
-      <c r="C117" s="6"/>
+        <v>330</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>209</v>
+      </c>
       <c r="D117" s="6"/>
     </row>
-    <row r="118" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="82.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B118" s="6"/>
-      <c r="C118" s="6"/>
+        <v>332</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="D118" s="6"/>
     </row>
-    <row r="119" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="82.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="B119" s="6"/>
-      <c r="C119" s="6"/>
+        <v>334</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="D119" s="6"/>
     </row>
-    <row r="120" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="82.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="B120" s="6"/>
-      <c r="C120" s="6"/>
+        <v>336</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="D120" s="6"/>
     </row>
-    <row r="121" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="3" t="s">
-        <v>292</v>
+        <v>338</v>
       </c>
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
     </row>
-    <row r="122" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="3" t="s">
-        <v>293</v>
+        <v>339</v>
       </c>
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
     </row>
-    <row r="123" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="3" t="s">
-        <v>294</v>
+        <v>340</v>
       </c>
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
     </row>
-    <row r="124" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="3" t="s">
-        <v>295</v>
+        <v>341</v>
       </c>
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
     </row>
-    <row r="125" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="3" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
     </row>
-    <row r="126" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="3" t="s">
-        <v>297</v>
+        <v>343</v>
       </c>
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
     </row>
-    <row r="127" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="3" t="s">
-        <v>298</v>
+        <v>344</v>
       </c>
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
     </row>
-    <row r="128" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="3" t="s">
-        <v>299</v>
+        <v>345</v>
       </c>
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
       <c r="D128" s="6"/>
     </row>
-    <row r="129" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="3" t="s">
-        <v>300</v>
+        <v>346</v>
       </c>
       <c r="B129" s="6"/>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
     </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="6"/>
+    <row r="130" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="3" t="s">
+        <v>347</v>
+      </c>
       <c r="B130" s="6"/>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
     </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="6"/>
+    <row r="131" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="3" t="s">
+        <v>348</v>
+      </c>
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
     </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="6"/>
+    <row r="132" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="3" t="s">
+        <v>349</v>
+      </c>
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
     </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="6"/>
+    <row r="133" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="3" t="s">
+        <v>350</v>
+      </c>
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
     </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="6"/>
+    <row r="134" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="3" t="s">
+        <v>351</v>
+      </c>
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
     </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="6"/>
+    <row r="135" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="3" t="s">
+        <v>352</v>
+      </c>
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
     </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="6"/>
+    <row r="136" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="3" t="s">
+        <v>353</v>
+      </c>
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
     </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="6"/>
+    <row r="137" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="3" t="s">
+        <v>354</v>
+      </c>
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
     </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="6"/>
+    <row r="138" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="3" t="s">
+        <v>355</v>
+      </c>
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
       <c r="D138" s="6"/>
     </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="6"/>
+    <row r="139" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="3" t="s">
+        <v>356</v>
+      </c>
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
     </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="6"/>
+    <row r="140" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="3" t="s">
+        <v>357</v>
+      </c>
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
     </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="6"/>
+    <row r="141" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="3" t="s">
+        <v>358</v>
+      </c>
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
     </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="6"/>
+    <row r="142" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="3" t="s">
+        <v>359</v>
+      </c>
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
     </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="6"/>
+    <row r="143" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="3" t="s">
+        <v>360</v>
+      </c>
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
     </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="6"/>
+    <row r="144" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="3" t="s">
+        <v>361</v>
+      </c>
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
     </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="6"/>
+    <row r="145" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="3" t="s">
+        <v>362</v>
+      </c>
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
       <c r="D145" s="6"/>
     </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="6"/>
+    <row r="146" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="3" t="s">
+        <v>363</v>
+      </c>
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
       <c r="D146" s="6"/>
     </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="6"/>
+    <row r="147" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="3" t="s">
+        <v>364</v>
+      </c>
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
       <c r="D147" s="6"/>
     </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="6"/>
+    <row r="148" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="3" t="s">
+        <v>365</v>
+      </c>
       <c r="B148" s="6"/>
       <c r="C148" s="6"/>
       <c r="D148" s="6"/>
     </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="6"/>
+    <row r="149" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="3" t="s">
+        <v>366</v>
+      </c>
       <c r="B149" s="6"/>
       <c r="C149" s="6"/>
       <c r="D149" s="6"/>
     </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="6"/>
+    <row r="150" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="3" t="s">
+        <v>367</v>
+      </c>
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
     </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="6"/>
+    <row r="151" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
     </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="6"/>
+    <row r="152" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="3" t="s">
+        <v>369</v>
+      </c>
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
     </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="6"/>
+    <row r="153" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="3" t="s">
+        <v>370</v>
+      </c>
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
     </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="6"/>
+    <row r="154" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="3" t="s">
+        <v>371</v>
+      </c>
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
       <c r="D154" s="6"/>
     </row>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="6"/>
+    <row r="155" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="3" t="s">
+        <v>372</v>
+      </c>
       <c r="B155" s="6"/>
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
     </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="6"/>
+    <row r="156" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="3" t="s">
+        <v>373</v>
+      </c>
       <c r="B156" s="6"/>
       <c r="C156" s="6"/>
       <c r="D156" s="6"/>
     </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="6"/>
+    <row r="157" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="3" t="s">
+        <v>374</v>
+      </c>
       <c r="B157" s="6"/>
       <c r="C157" s="6"/>
       <c r="D157" s="6"/>
     </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="6"/>
+    <row r="158" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="3" t="s">
+        <v>375</v>
+      </c>
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
       <c r="D158" s="6"/>
     </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="6"/>
+    <row r="159" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="3" t="s">
+        <v>376</v>
+      </c>
       <c r="B159" s="6"/>
       <c r="C159" s="6"/>
       <c r="D159" s="6"/>
     </row>
-    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="6"/>
+    <row r="160" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="3" t="s">
+        <v>377</v>
+      </c>
       <c r="B160" s="6"/>
       <c r="C160" s="6"/>
       <c r="D160" s="6"/>
     </row>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="6"/>
+    <row r="161" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="3" t="s">
+        <v>378</v>
+      </c>
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
       <c r="D161" s="6"/>
     </row>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="6"/>
+    <row r="162" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="3" t="s">
+        <v>379</v>
+      </c>
       <c r="B162" s="6"/>
       <c r="C162" s="6"/>
       <c r="D162" s="6"/>
     </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="6"/>
+    <row r="163" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="3" t="s">
+        <v>380</v>
+      </c>
       <c r="B163" s="6"/>
       <c r="C163" s="6"/>
       <c r="D163" s="6"/>
     </row>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="6"/>
+    <row r="164" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="3" t="s">
+        <v>381</v>
+      </c>
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>
       <c r="D164" s="6"/>
     </row>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="6"/>
+    <row r="165" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="3" t="s">
+        <v>382</v>
+      </c>
       <c r="B165" s="6"/>
       <c r="C165" s="6"/>
       <c r="D165" s="6"/>
     </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="6"/>
+    <row r="166" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="3" t="s">
+        <v>383</v>
+      </c>
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
       <c r="D166" s="6"/>
     </row>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="6"/>
+    <row r="167" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="3" t="s">
+        <v>384</v>
+      </c>
       <c r="B167" s="6"/>
       <c r="C167" s="6"/>
       <c r="D167" s="6"/>
     </row>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="6"/>
+    <row r="168" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="3" t="s">
+        <v>385</v>
+      </c>
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
       <c r="D168" s="6"/>
     </row>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="6"/>
+    <row r="169" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="3" t="s">
+        <v>386</v>
+      </c>
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
       <c r="D169" s="6"/>
     </row>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="6"/>
+    <row r="170" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="3" t="s">
+        <v>387</v>
+      </c>
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
       <c r="D170" s="6"/>
     </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="6"/>
+    <row r="171" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="3" t="s">
+        <v>388</v>
+      </c>
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
       <c r="D171" s="6"/>
     </row>
-    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="6"/>
+    <row r="172" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="3" t="s">
+        <v>389</v>
+      </c>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
       <c r="D172" s="6"/>
     </row>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="6"/>
+    <row r="173" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="3" t="s">
+        <v>390</v>
+      </c>
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
       <c r="D173" s="6"/>
     </row>
-    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="6"/>
+    <row r="174" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="3" t="s">
+        <v>391</v>
+      </c>
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
       <c r="D174" s="6"/>
     </row>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="6"/>
+    <row r="175" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="3" t="s">
+        <v>392</v>
+      </c>
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
       <c r="D175" s="6"/>
     </row>
-    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="6"/>
+    <row r="176" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="3" t="s">
+        <v>393</v>
+      </c>
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
       <c r="D176" s="6"/>
     </row>
+    <row r="177" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="B177" s="6"/>
+      <c r="C177" s="6"/>
+      <c r="D177" s="6"/>
+    </row>
+    <row r="178" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B178" s="6"/>
+      <c r="C178" s="6"/>
+      <c r="D178" s="6"/>
+    </row>
+    <row r="179" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="B179" s="6"/>
+      <c r="C179" s="6"/>
+      <c r="D179" s="6"/>
+    </row>
+    <row r="180" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="B180" s="6"/>
+      <c r="C180" s="6"/>
+      <c r="D180" s="6"/>
+    </row>
+    <row r="181" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="B181" s="6"/>
+      <c r="C181" s="6"/>
+      <c r="D181" s="6"/>
+    </row>
+    <row r="182" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B182" s="6"/>
+      <c r="C182" s="6"/>
+      <c r="D182" s="6"/>
+    </row>
+    <row r="183" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="B183" s="6"/>
+      <c r="C183" s="6"/>
+      <c r="D183" s="6"/>
+    </row>
+    <row r="184" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B184" s="6"/>
+      <c r="C184" s="6"/>
+      <c r="D184" s="6"/>
+    </row>
+    <row r="185" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="B185" s="6"/>
+      <c r="C185" s="6"/>
+      <c r="D185" s="6"/>
+    </row>
+    <row r="186" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="B186" s="6"/>
+      <c r="C186" s="6"/>
+      <c r="D186" s="6"/>
+    </row>
+    <row r="187" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="B187" s="6"/>
+      <c r="C187" s="6"/>
+      <c r="D187" s="6"/>
+    </row>
+    <row r="188" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="B188" s="6"/>
+      <c r="C188" s="6"/>
+      <c r="D188" s="6"/>
+    </row>
+    <row r="189" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="B189" s="6"/>
+      <c r="C189" s="6"/>
+      <c r="D189" s="6"/>
+    </row>
+    <row r="190" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="B190" s="6"/>
+      <c r="C190" s="6"/>
+      <c r="D190" s="6"/>
+    </row>
+    <row r="191" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B191" s="6"/>
+      <c r="C191" s="6"/>
+      <c r="D191" s="6"/>
+    </row>
+    <row r="192" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="B192" s="6"/>
+      <c r="C192" s="6"/>
+      <c r="D192" s="6"/>
+    </row>
+    <row r="193" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="B193" s="6"/>
+      <c r="C193" s="6"/>
+      <c r="D193" s="6"/>
+    </row>
+    <row r="194" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="B194" s="6"/>
+      <c r="C194" s="6"/>
+      <c r="D194" s="6"/>
+    </row>
+    <row r="195" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B195" s="6"/>
+      <c r="C195" s="6"/>
+      <c r="D195" s="6"/>
+    </row>
+    <row r="196" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B196" s="6"/>
+      <c r="C196" s="6"/>
+      <c r="D196" s="6"/>
+    </row>
+    <row r="197" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B197" s="6"/>
+      <c r="C197" s="6"/>
+      <c r="D197" s="6"/>
+    </row>
+    <row r="198" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="B198" s="6"/>
+      <c r="C198" s="6"/>
+      <c r="D198" s="6"/>
+    </row>
+    <row r="199" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B199" s="6"/>
+      <c r="C199" s="6"/>
+      <c r="D199" s="6"/>
+    </row>
+    <row r="200" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="B200" s="6"/>
+      <c r="C200" s="6"/>
+      <c r="D200" s="6"/>
+    </row>
+    <row r="201" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="3" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="3" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="3" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C61" r:id="rId1" display="http://demo.yomedia.v2/setup-ad/interscroller/mobile/"/>
+    <hyperlink ref="D61" r:id="rId2" display="http://analytics.yomedia.vn"/>
+    <hyperlink ref="D62" r:id="rId3" display="http://analytics.yomedia.vn"/>
+    <hyperlink ref="C63" r:id="rId4" display="http://demo.yomedia.vn/setup-ad/balloon"/>
+    <hyperlink ref="C64" r:id="rId5" display="http://tuoitre.vn"/>
+    <hyperlink ref="D64" r:id="rId6" display="http://analytics.yomedia.vn"/>
+    <hyperlink ref="C66" r:id="rId7" display="http://tuoitre.vn"/>
+    <hyperlink ref="C67" r:id="rId8" display="http://demo.yomedia.vn/setup-ad/balloon"/>
+    <hyperlink ref="C68" r:id="rId9" display="http://demo.yomedia.vn/setup-ad/balloon"/>
+    <hyperlink ref="C69" r:id="rId10" display="http://demo.yomedia.vn/setup-ad/balloon"/>
+    <hyperlink ref="C73" r:id="rId11" display="http://demo.yomedia.vn/setup-ad/balloon"/>
+    <hyperlink ref="C74" r:id="rId12" display="http://demo.yomedia.vn/setup-ad/balloon"/>
+    <hyperlink ref="D74" r:id="rId13" display="http://analytics.yomedia.vn"/>
+    <hyperlink ref="C75" r:id="rId14" display="http://demo.yomedia.vn/setup-ad/balloon"/>
+    <hyperlink ref="C79" r:id="rId15" display="http://demo.yomedia.vn/setup-ad/balloon"/>
+    <hyperlink ref="C80" r:id="rId16" display="http://demo.yomedia.vn/setup-ad/balloon"/>
+    <hyperlink ref="D80" r:id="rId17" display="http://analytics.yomedia.vn"/>
+    <hyperlink ref="C81" r:id="rId18" display="http://demo.yomedia.vn/setup-ad/balloon"/>
+    <hyperlink ref="C85" r:id="rId19" display="http://demo.yomedia.vn/setup-ad/balloon"/>
+    <hyperlink ref="C86" r:id="rId20" display="http://demo.yomedia.vn/setup-ad/balloon"/>
+    <hyperlink ref="D86" r:id="rId21" display="http://analytics.yomedia.vn"/>
+    <hyperlink ref="C87" r:id="rId22" display="http://demo.yomedia.vn/setup-ad/balloon"/>
+    <hyperlink ref="C91" r:id="rId23" display="http://demo.yomedia.vn/setup-ad/balloon"/>
+    <hyperlink ref="C92" r:id="rId24" display="http://demo.yomedia.vn/setup-ad/balloon"/>
+    <hyperlink ref="D92" r:id="rId25" display="http://analytics.yomedia.vn"/>
+    <hyperlink ref="C93" r:id="rId26" display="http://demo.yomedia.vn/setup-ad/balloon"/>
+    <hyperlink ref="C97" r:id="rId27" display="http://demo.yomedia.vn/setup-ad/balloon"/>
+    <hyperlink ref="C98" r:id="rId28" display="http://demo.yomedia.vn/setup-ad/balloon"/>
+    <hyperlink ref="C99" r:id="rId29" display="http://demo.yomedia.vn/setup-ad/balloon"/>
+    <hyperlink ref="C103" r:id="rId30" display="http://demo.yomedia.vn/setup-ad/balloon"/>
+    <hyperlink ref="C104" r:id="rId31" display="http://demo.yomedia.vn/setup-ad/balloon"/>
+    <hyperlink ref="C105" r:id="rId32" display="http://demo.yomedia.vn/setup-ad/balloon"/>
+    <hyperlink ref="C109" r:id="rId33" display="http://demo.yomedia.vn/setup-ad/balloon"/>
+    <hyperlink ref="C110" r:id="rId34" display="http://demo.yomedia.vn/setup-ad/balloon"/>
+    <hyperlink ref="C111" r:id="rId35" display="http://demo.yomedia.vn/setup-ad/balloon"/>
+    <hyperlink ref="C115" r:id="rId36" display="http://demo.yomedia.vn/setup-ad/balloon"/>
+    <hyperlink ref="C116" r:id="rId37" display="http://demo.yomedia.vn/setup-ad/balloon"/>
+    <hyperlink ref="C117" r:id="rId38" display="http://demo.yomedia.vn/setup-ad/balloon"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
